--- a/Code/Results/Cases/Case_2_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33102366631441</v>
+        <v>11.52197107881983</v>
       </c>
       <c r="C2">
-        <v>9.666693668739089</v>
+        <v>7.85231458517254</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.35954427034755</v>
+        <v>11.02027059877949</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.112777683644064</v>
+        <v>3.689491207302202</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.97141255410106</v>
+        <v>26.91105347852788</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.39687497841442</v>
+        <v>12.2943842095911</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.96441313896941</v>
+        <v>15.35652415228537</v>
       </c>
       <c r="N2">
-        <v>14.47927777582766</v>
+        <v>21.27587702653777</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.39046568307091</v>
+        <v>11.30779248317189</v>
       </c>
       <c r="C3">
-        <v>9.056959863842067</v>
+        <v>7.678181610661778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.41209749692263</v>
+        <v>10.79380394866382</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.120707600967205</v>
+        <v>3.692260505092112</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.82500182975663</v>
+        <v>26.94013856770037</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.52736342920968</v>
+        <v>12.15505823811158</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.92420761014404</v>
+        <v>15.21178828931428</v>
       </c>
       <c r="N3">
-        <v>14.67680969848409</v>
+        <v>21.33209970627703</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.78200651247133</v>
+        <v>11.17760832545187</v>
       </c>
       <c r="C4">
-        <v>8.670398853846887</v>
+        <v>7.571872821007293</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.87678880660476</v>
+        <v>10.65602210512897</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.125697156083083</v>
+        <v>3.694048494115865</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.75074945360151</v>
+        <v>26.96311565800254</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.05285361590191</v>
+        <v>12.07209165006378</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.39571037390312</v>
+        <v>15.12648832516062</v>
       </c>
       <c r="N4">
-        <v>14.8024495832558</v>
+        <v>21.36856137812239</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.5261893442226</v>
+        <v>11.12496854336536</v>
       </c>
       <c r="C5">
-        <v>8.509900516965374</v>
+        <v>7.528773226515678</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.65439686135573</v>
+        <v>10.6002796073886</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.127762244216007</v>
+        <v>3.694799227551738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.72425786842874</v>
+        <v>26.97376282027511</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.87204812320549</v>
+        <v>12.03896963683171</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.18969945662035</v>
+        <v>15.09266059439035</v>
       </c>
       <c r="N5">
-        <v>14.85472862330755</v>
+        <v>21.38390816670057</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48464158967756</v>
+        <v>11.1162548972665</v>
       </c>
       <c r="C6">
-        <v>8.4830737906795</v>
+        <v>7.52163201761636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.61721658907794</v>
+        <v>10.5910505598934</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.128107113159414</v>
+        <v>3.694925224163837</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.72008157562264</v>
+        <v>26.97560820811807</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.84185269791066</v>
+        <v>12.03351238122484</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.15534133610056</v>
+        <v>15.08710085297468</v>
       </c>
       <c r="N6">
-        <v>14.86347434815813</v>
+        <v>21.38648599575648</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.77858842292648</v>
+        <v>11.17689663726233</v>
       </c>
       <c r="C7">
-        <v>8.668246201887928</v>
+        <v>7.571290573819334</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.87380656550391</v>
+        <v>10.6552685902624</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.125724875909858</v>
+        <v>3.694058529129905</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.7503771480079</v>
+        <v>26.96325405601053</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.05042692647906</v>
+        <v>12.07164212108832</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.39294226718183</v>
+        <v>15.12602829084732</v>
       </c>
       <c r="N7">
-        <v>14.80315028250701</v>
+        <v>21.36876637249546</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.01309261752783</v>
+        <v>11.44789499035941</v>
       </c>
       <c r="C8">
-        <v>9.459030089737038</v>
+        <v>7.792187928728403</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.03219609583939</v>
+        <v>10.94197244271261</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.115487826497956</v>
+        <v>3.690427921062203</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.91758275259015</v>
+        <v>26.92001771838257</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.10288362046042</v>
+        <v>12.24583279050389</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.61248560883409</v>
+        <v>15.3059004158399</v>
       </c>
       <c r="N8">
-        <v>14.54647285872892</v>
+        <v>21.29486002090195</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.19232777263401</v>
+        <v>11.986386449984</v>
       </c>
       <c r="C9">
-        <v>11.01406640087098</v>
+        <v>8.227254994693972</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.28699638435304</v>
+        <v>11.51057006512644</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.09629665265966</v>
+        <v>3.684000025607744</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.37707999613532</v>
+        <v>26.8759832126931</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.11982770796567</v>
+        <v>12.60612599015936</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.03150756353814</v>
+        <v>15.68529895415436</v>
       </c>
       <c r="N9">
-        <v>14.07854711843538</v>
+        <v>21.16531208164947</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.6520669633897</v>
+        <v>12.38183518823342</v>
       </c>
       <c r="C10">
-        <v>12.10787424707946</v>
+        <v>8.544255207780807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.81264430106848</v>
+        <v>11.92738626003016</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.082624614430983</v>
+        <v>3.679694120027816</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.80522889557465</v>
+        <v>26.86864381968296</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.47356777765663</v>
+        <v>12.87980580682865</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.66129399794558</v>
+        <v>15.97799363521163</v>
       </c>
       <c r="N10">
-        <v>13.75790191952291</v>
+        <v>21.07948681079937</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28688629430123</v>
+        <v>12.56079055520717</v>
       </c>
       <c r="C11">
-        <v>12.58749545672686</v>
+        <v>8.687146218035732</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.48026262389327</v>
+        <v>12.11584167376793</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.076470216028026</v>
+        <v>3.677824656752574</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.02193419844222</v>
+        <v>26.8707646318153</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.06307410764487</v>
+        <v>13.00573153019776</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.37262467257295</v>
+        <v>16.11366344369112</v>
       </c>
       <c r="N11">
-        <v>13.61752676279754</v>
+        <v>21.04246907465074</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52320312076755</v>
+        <v>12.62835034331213</v>
       </c>
       <c r="C12">
-        <v>12.76664925137349</v>
+        <v>8.741008788603425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.72945855945551</v>
+        <v>12.18696335874732</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.074146514985752</v>
+        <v>3.677129501265313</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.10734177027391</v>
+        <v>26.87235433884311</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.28265285415154</v>
+        <v>13.05357750309656</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.63783837129293</v>
+        <v>16.16535663903434</v>
       </c>
       <c r="N12">
-        <v>13.565210914393</v>
+        <v>21.0287423235425</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.47248718336861</v>
+        <v>12.61381043802779</v>
       </c>
       <c r="C13">
-        <v>12.72817307505177</v>
+        <v>8.729420399545287</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.67594753639537</v>
+        <v>12.17165797215958</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.074646704572686</v>
+        <v>3.677278648670486</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.08879577732033</v>
+        <v>26.8719769630185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.23552299005024</v>
+        <v>13.04326657821545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.58090159621866</v>
+        <v>16.15421015450641</v>
       </c>
       <c r="N13">
-        <v>13.57643971180519</v>
+        <v>21.03168568079756</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.3064091345986</v>
+        <v>12.56635328293429</v>
       </c>
       <c r="C14">
-        <v>12.60228330835845</v>
+        <v>8.69158279758091</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.50083550725118</v>
+        <v>12.12169817368131</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.076278922136759</v>
+        <v>3.67776721038916</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.02889254876103</v>
+        <v>26.87087964612352</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.0812114416022</v>
+        <v>13.0096648818617</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.39452612880107</v>
+        <v>16.11791015737984</v>
       </c>
       <c r="N14">
-        <v>13.61320551139196</v>
+        <v>21.04133393358457</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20415473857729</v>
+        <v>12.53725540466683</v>
       </c>
       <c r="C15">
-        <v>12.52485438655048</v>
+        <v>8.668372323300915</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.39310900741475</v>
+        <v>12.09106261787886</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.077279513406168</v>
+        <v>3.678068129358369</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.99264164601786</v>
+        <v>26.87030998438854</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.98621928021673</v>
+        <v>12.98910247491254</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.27983046457699</v>
+        <v>16.09571544409799</v>
       </c>
       <c r="N15">
-        <v>13.63583689950723</v>
+        <v>21.0472816701593</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.61000257152278</v>
+        <v>12.37011495103156</v>
       </c>
       <c r="C16">
-        <v>12.07617790838574</v>
+        <v>8.53488544342769</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.76849754166718</v>
+        <v>11.91504039334727</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.08302791871347</v>
+        <v>3.67981808478389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.79152433158619</v>
+        <v>26.86861521996246</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.4345234402999</v>
+        <v>12.87160116411224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.61421616252119</v>
+        <v>15.96917422642568</v>
       </c>
       <c r="N16">
-        <v>13.76719040446161</v>
+        <v>21.08194674025131</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.23811151621588</v>
+        <v>12.26728749669095</v>
       </c>
       <c r="C17">
-        <v>11.79640628885819</v>
+        <v>8.45261644158283</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.37867829358507</v>
+        <v>11.80670488591016</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.086569333711439</v>
+        <v>3.68091444886555</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.67389815270624</v>
+        <v>26.86897508043131</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.08942453337919</v>
+        <v>12.79985164425851</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.1982997208447</v>
+        <v>15.89215946708128</v>
       </c>
       <c r="N17">
-        <v>13.84921087318054</v>
+        <v>21.10373112751402</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.02145077436661</v>
+        <v>12.20805983996285</v>
       </c>
       <c r="C18">
-        <v>11.63379107145286</v>
+        <v>8.405177062092042</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.15196725452269</v>
+        <v>11.74428861564388</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.088612553220734</v>
+        <v>3.681553459591871</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.60829581989196</v>
+        <v>26.86969587620887</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.88844732650703</v>
+        <v>12.75872022732413</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.95623432006293</v>
+        <v>15.84810264938532</v>
       </c>
       <c r="N18">
-        <v>13.89689973191357</v>
+        <v>21.11645149927751</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.94761564726493</v>
+        <v>12.18799419601829</v>
       </c>
       <c r="C19">
-        <v>11.57843750275068</v>
+        <v>8.389096054220554</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.07477265758394</v>
+        <v>11.72313996657343</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.089305505441408</v>
+        <v>3.681771264511632</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.58643091315473</v>
+        <v>26.87002811968131</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.81996924035531</v>
+        <v>12.74481873357121</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.87378216472787</v>
+        <v>15.83322834879487</v>
       </c>
       <c r="N19">
-        <v>13.91313302791102</v>
+        <v>21.12079113167426</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.27798459958311</v>
+        <v>12.27824288445272</v>
       </c>
       <c r="C20">
-        <v>11.82636341387264</v>
+        <v>8.461387014290015</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.42043242892076</v>
+        <v>11.81824877033475</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.08619171036185</v>
+        <v>3.680796869053507</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.68620580665832</v>
+        <v>26.86888358236856</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.12641722932923</v>
+        <v>12.807475647701</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.24286760177439</v>
+        <v>15.9003332993136</v>
       </c>
       <c r="N20">
-        <v>13.84042623256821</v>
+        <v>21.10139241976369</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35529982482764</v>
+        <v>12.58029876702461</v>
       </c>
       <c r="C21">
-        <v>12.63932618908149</v>
+        <v>8.702703771508862</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.55236678010434</v>
+        <v>12.13637973786588</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.07579933616936</v>
+        <v>3.677623361989506</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.04639520673457</v>
+        <v>26.87118059656005</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.12663457602576</v>
+        <v>13.0195305084638</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.44938034915576</v>
+        <v>16.12856407302871</v>
       </c>
       <c r="N21">
-        <v>13.60238320703837</v>
+        <v>21.03849210896931</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03569971167275</v>
+        <v>12.77647393521067</v>
       </c>
       <c r="C22">
-        <v>13.15632122864766</v>
+        <v>8.85895328432629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.27116811491548</v>
+        <v>12.34285226218178</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.069045795493158</v>
+        <v>3.67562368924788</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.30139771757692</v>
+        <v>26.87726714076204</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.75910177269441</v>
+        <v>13.15903658973087</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.21379826889875</v>
+        <v>16.27955875047484</v>
       </c>
       <c r="N22">
-        <v>13.45174366560036</v>
+        <v>20.99907963845333</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.67468006587561</v>
+        <v>12.67190751263617</v>
       </c>
       <c r="C23">
-        <v>12.88166003913714</v>
+        <v>8.775712278941667</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.88938576062543</v>
+        <v>12.232810156967</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.072647671349685</v>
+        <v>3.67668416907983</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.16343947666623</v>
+        <v>26.87359869062399</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.42343902641563</v>
+        <v>13.08451037243298</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.8079587699058</v>
+        <v>16.19881713697337</v>
       </c>
       <c r="N23">
-        <v>13.53167112977525</v>
+        <v>21.01995960144587</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.25996688266065</v>
+        <v>12.27329029314727</v>
       </c>
       <c r="C24">
-        <v>11.81282532167689</v>
+        <v>8.457422275677482</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.4015634923134</v>
+        <v>11.81303018789177</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.086362411224675</v>
+        <v>3.680849999790645</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.68063523096432</v>
+        <v>26.86892334783402</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.10970086248691</v>
+        <v>12.80402846368966</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.22272766261792</v>
+        <v>15.89663722109496</v>
       </c>
       <c r="N24">
-        <v>13.84439610847272</v>
+        <v>21.10244913816923</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6280659038618</v>
+        <v>11.84042531369147</v>
       </c>
       <c r="C25">
-        <v>10.59466522153474</v>
+        <v>8.109757837521762</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.70063889406628</v>
+        <v>11.35657476671213</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.101404637004354</v>
+        <v>3.68566540906445</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.23762374833312</v>
+        <v>26.88351389960431</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.59715808629287</v>
+        <v>12.50690311924498</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.40360269123571</v>
+        <v>15.58003980001822</v>
       </c>
       <c r="N25">
-        <v>14.20120372697323</v>
+        <v>21.19871402139793</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.52197107881983</v>
+        <v>13.33102366631442</v>
       </c>
       <c r="C2">
-        <v>7.85231458517254</v>
+        <v>9.666693668739065</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.02027059877949</v>
+        <v>13.35954427034754</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.689491207302202</v>
+        <v>2.112777683644063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.91105347852788</v>
+        <v>19.97141255410105</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.2943842095911</v>
+        <v>12.39687497841443</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.35652415228537</v>
+        <v>14.96441313896941</v>
       </c>
       <c r="N2">
-        <v>21.27587702653777</v>
+        <v>14.47927777582762</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30779248317189</v>
+        <v>12.39046568307093</v>
       </c>
       <c r="C3">
-        <v>7.678181610661778</v>
+        <v>9.05695986384208</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.79380394866382</v>
+        <v>12.4120974969226</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.692260505092112</v>
+        <v>2.120707600967336</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.94013856770037</v>
+        <v>19.82500182975673</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.15505823811158</v>
+        <v>11.5273634292097</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.21178828931428</v>
+        <v>13.92420761014409</v>
       </c>
       <c r="N3">
-        <v>21.33209970627703</v>
+        <v>14.67680969848413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17760832545187</v>
+        <v>11.78200651247144</v>
       </c>
       <c r="C4">
-        <v>7.571872821007293</v>
+        <v>8.67039885384688</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.65602210512897</v>
+        <v>11.87678880660477</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.694048494115865</v>
+        <v>2.125697156083481</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.96311565800254</v>
+        <v>19.75074945360144</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.07209165006378</v>
+        <v>11.05285361590189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.12648832516062</v>
+        <v>13.39571037390313</v>
       </c>
       <c r="N4">
-        <v>21.36856137812239</v>
+        <v>14.80244958325586</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12496854336536</v>
+        <v>11.52618934422258</v>
       </c>
       <c r="C5">
-        <v>7.528773226515678</v>
+        <v>8.509900516965393</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.6002796073886</v>
+        <v>11.65439686135572</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.694799227551738</v>
+        <v>2.127762244216007</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.97376282027511</v>
+        <v>19.72425786842891</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.03896963683171</v>
+        <v>10.87204812320554</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.09266059439035</v>
+        <v>13.18969945662036</v>
       </c>
       <c r="N5">
-        <v>21.38390816670057</v>
+        <v>14.85472862330761</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.1162548972665</v>
+        <v>11.48464158967757</v>
       </c>
       <c r="C6">
-        <v>7.52163201761636</v>
+        <v>8.483073790679455</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.5910505598934</v>
+        <v>11.61721658907795</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.694925224163837</v>
+        <v>2.128107113159278</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.97560820811807</v>
+        <v>19.72008157562256</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.03351238122484</v>
+        <v>10.84185269791068</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.08710085297468</v>
+        <v>13.15534133610058</v>
       </c>
       <c r="N6">
-        <v>21.38648599575648</v>
+        <v>14.86347434815808</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17689663726233</v>
+        <v>11.77858842292648</v>
       </c>
       <c r="C7">
-        <v>7.571290573819334</v>
+        <v>8.668246201887927</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.6552685902624</v>
+        <v>11.87380656550392</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.694058529129905</v>
+        <v>2.125724875909857</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.96325405601053</v>
+        <v>19.75037714800801</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.07164212108832</v>
+        <v>11.05042692647906</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.12602829084732</v>
+        <v>13.39294226718183</v>
       </c>
       <c r="N7">
-        <v>21.36876637249546</v>
+        <v>14.80315028250705</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.44789499035941</v>
+        <v>13.01309261752779</v>
       </c>
       <c r="C8">
-        <v>7.792187928728403</v>
+        <v>9.459030089737031</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.94197244271261</v>
+        <v>13.03219609583941</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.690427921062203</v>
+        <v>2.115487826498086</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.92001771838257</v>
+        <v>19.91758275259037</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.24583279050389</v>
+        <v>12.10288362046039</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.3059004158399</v>
+        <v>14.61248560883411</v>
       </c>
       <c r="N8">
-        <v>21.29486002090195</v>
+        <v>14.54647285872903</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.986386449984</v>
+        <v>15.19232777263403</v>
       </c>
       <c r="C9">
-        <v>8.227254994693972</v>
+        <v>11.014066400871</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.51057006512644</v>
+        <v>15.286996384353</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.684000025607744</v>
+        <v>2.096296652659792</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.8759832126931</v>
+        <v>20.37707999613541</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.60612599015936</v>
+        <v>14.11982770796566</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.68529895415436</v>
+        <v>17.03150756353813</v>
       </c>
       <c r="N9">
-        <v>21.16531208164947</v>
+        <v>14.07854711843548</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.38183518823342</v>
+        <v>16.6520669633898</v>
       </c>
       <c r="C10">
-        <v>8.544255207780807</v>
+        <v>12.10787424707947</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.92738626003016</v>
+        <v>16.81264430106851</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.679694120027816</v>
+        <v>2.082624614431115</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.86864381968296</v>
+        <v>20.80522889557458</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.87980580682865</v>
+        <v>15.47356777765672</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.97799363521163</v>
+        <v>18.66129399794565</v>
       </c>
       <c r="N10">
-        <v>21.07948681079937</v>
+        <v>13.75790191952282</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.56079055520717</v>
+        <v>17.28688629430125</v>
       </c>
       <c r="C11">
-        <v>8.687146218035732</v>
+        <v>12.58749545672667</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.11584167376793</v>
+        <v>17.48026262389321</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.677824656752574</v>
+        <v>2.076470216028028</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.8707646318153</v>
+        <v>21.02193419844232</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.00573153019776</v>
+        <v>16.06307410764481</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.11366344369112</v>
+        <v>19.37262467257289</v>
       </c>
       <c r="N11">
-        <v>21.04246907465074</v>
+        <v>13.61752676279762</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.62835034331213</v>
+        <v>17.52320312076762</v>
       </c>
       <c r="C12">
-        <v>8.741008788603425</v>
+        <v>12.76664925137357</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.18696335874732</v>
+        <v>17.72945855945544</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.677129501265313</v>
+        <v>2.074146514985619</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.87235433884311</v>
+        <v>21.10734177027382</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.05357750309656</v>
+        <v>16.28265285415159</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.16535663903434</v>
+        <v>19.63783837129295</v>
       </c>
       <c r="N12">
-        <v>21.0287423235425</v>
+        <v>13.56521091439286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.61381043802779</v>
+        <v>17.47248718336865</v>
       </c>
       <c r="C13">
-        <v>8.729420399545287</v>
+        <v>12.72817307505175</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.17165797215958</v>
+        <v>17.67594753639544</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.677278648670486</v>
+        <v>2.074646704572417</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.8719769630185</v>
+        <v>21.08879577732044</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.04326657821545</v>
+        <v>16.23552299005025</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.15421015450641</v>
+        <v>19.58090159621871</v>
       </c>
       <c r="N13">
-        <v>21.03168568079756</v>
+        <v>13.57643971180522</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.56635328293429</v>
+        <v>17.30640913459869</v>
       </c>
       <c r="C14">
-        <v>8.69158279758091</v>
+        <v>12.6022833083585</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.12169817368131</v>
+        <v>17.50083550725122</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.67776721038916</v>
+        <v>2.076278922136627</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.87087964612352</v>
+        <v>21.02889254876098</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.0096648818617</v>
+        <v>16.08121144160232</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.11791015737984</v>
+        <v>19.39452612880113</v>
       </c>
       <c r="N14">
-        <v>21.04133393358457</v>
+        <v>13.61320551139192</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.53725540466683</v>
+        <v>17.20415473857729</v>
       </c>
       <c r="C15">
-        <v>8.668372323300915</v>
+        <v>12.52485438655042</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.09106261787886</v>
+        <v>17.39310900741475</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.678068129358369</v>
+        <v>2.077279513406299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.87030998438854</v>
+        <v>20.99264164601786</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.98910247491254</v>
+        <v>15.9862192802167</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.09571544409799</v>
+        <v>19.27983046457696</v>
       </c>
       <c r="N15">
-        <v>21.0472816701593</v>
+        <v>13.63583689950725</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.37011495103156</v>
+        <v>16.61000257152275</v>
       </c>
       <c r="C16">
-        <v>8.53488544342769</v>
+        <v>12.07617790838567</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.91504039334727</v>
+        <v>16.7684975416672</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.67981808478389</v>
+        <v>2.083027918713339</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.86861521996246</v>
+        <v>20.79152433158619</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.87160116411224</v>
+        <v>15.43452344029986</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.96917422642568</v>
+        <v>18.61421616252117</v>
       </c>
       <c r="N16">
-        <v>21.08194674025131</v>
+        <v>13.76719040446158</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.26728749669095</v>
+        <v>16.23811151621594</v>
       </c>
       <c r="C17">
-        <v>8.45261644158283</v>
+        <v>11.79640628885814</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.80670488591016</v>
+        <v>16.37867829358509</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.68091444886555</v>
+        <v>2.086569333711705</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.86897508043131</v>
+        <v>20.67389815270621</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.79985164425851</v>
+        <v>15.08942453337921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.89215946708128</v>
+        <v>18.19829972084472</v>
       </c>
       <c r="N17">
-        <v>21.10373112751402</v>
+        <v>13.84921087318053</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.20805983996285</v>
+        <v>16.02145077436669</v>
       </c>
       <c r="C18">
-        <v>8.405177062092042</v>
+        <v>11.63379107145276</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.74428861564388</v>
+        <v>16.15196725452276</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.681553459591871</v>
+        <v>2.088612553220598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.86969587620887</v>
+        <v>20.60829581989192</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.75872022732413</v>
+        <v>14.88844732650703</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.84810264938532</v>
+        <v>17.95623432006299</v>
       </c>
       <c r="N18">
-        <v>21.11645149927751</v>
+        <v>13.89689973191357</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.18799419601829</v>
+        <v>15.94761564726498</v>
       </c>
       <c r="C19">
-        <v>8.389096054220554</v>
+        <v>11.57843750275059</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.72313996657343</v>
+        <v>16.07477265758386</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.681771264511632</v>
+        <v>2.089305505441673</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.87002811968131</v>
+        <v>20.58643091315479</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.74481873357121</v>
+        <v>14.81996924035533</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.83322834879487</v>
+        <v>17.87378216472785</v>
       </c>
       <c r="N19">
-        <v>21.12079113167426</v>
+        <v>13.91313302791107</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.27824288445272</v>
+        <v>16.27798459958323</v>
       </c>
       <c r="C20">
-        <v>8.461387014290015</v>
+        <v>11.82636341387261</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.81824877033475</v>
+        <v>16.42043242892073</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.680796869053507</v>
+        <v>2.086191710361716</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.86888358236856</v>
+        <v>20.68620580665824</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.807475647701</v>
+        <v>15.12641722932928</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.9003332993136</v>
+        <v>18.2428676017744</v>
       </c>
       <c r="N20">
-        <v>21.10139241976369</v>
+        <v>13.84042623256814</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.58029876702461</v>
+        <v>17.35529982482759</v>
       </c>
       <c r="C21">
-        <v>8.702703771508862</v>
+        <v>12.6393261890816</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.13637973786588</v>
+        <v>17.55236678010431</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.677623361989506</v>
+        <v>2.075799336169363</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.87118059656005</v>
+        <v>21.04639520673468</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.0195305084638</v>
+        <v>16.1266345760258</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.12856407302871</v>
+        <v>19.44938034915576</v>
       </c>
       <c r="N21">
-        <v>21.03849210896931</v>
+        <v>13.60238320703844</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.77647393521067</v>
+        <v>18.03569971167282</v>
       </c>
       <c r="C22">
-        <v>8.85895328432629</v>
+        <v>13.15632122864762</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.34285226218178</v>
+        <v>18.27116811491558</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.67562368924788</v>
+        <v>2.069045795493426</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.87726714076204</v>
+        <v>21.30139771757686</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.15903658973087</v>
+        <v>16.75910177269441</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.27955875047484</v>
+        <v>20.21379826889881</v>
       </c>
       <c r="N22">
-        <v>20.99907963845333</v>
+        <v>13.45174366560024</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.67190751263617</v>
+        <v>17.67468006587565</v>
       </c>
       <c r="C23">
-        <v>8.775712278941667</v>
+        <v>12.88166003913709</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.232810156967</v>
+        <v>17.88938576062544</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.67668416907983</v>
+        <v>2.072647671349684</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.87359869062399</v>
+        <v>21.16343947666624</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.08451037243298</v>
+        <v>16.42343902641564</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.19881713697337</v>
+        <v>19.80795876990583</v>
       </c>
       <c r="N23">
-        <v>21.01995960144587</v>
+        <v>13.53167112977525</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.27329029314727</v>
+        <v>16.2599668826606</v>
       </c>
       <c r="C24">
-        <v>8.457422275677482</v>
+        <v>11.81282532167686</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.81303018789177</v>
+        <v>16.40156349231343</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.680849999790645</v>
+        <v>2.086362411224275</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.86892334783402</v>
+        <v>20.6806352309644</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.80402846368966</v>
+        <v>15.10970086248689</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.89663722109496</v>
+        <v>18.22272766261791</v>
       </c>
       <c r="N24">
-        <v>21.10244913816923</v>
+        <v>13.84439610847278</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.84042531369147</v>
+        <v>14.62806590386195</v>
       </c>
       <c r="C25">
-        <v>8.109757837521762</v>
+        <v>10.59466522153484</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.35657476671213</v>
+        <v>14.70063889406629</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.68566540906445</v>
+        <v>2.101404637004486</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.88351389960431</v>
+        <v>20.23762374833281</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.50690311924498</v>
+        <v>13.59715808629304</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.58003980001822</v>
+        <v>16.40360269123581</v>
       </c>
       <c r="N25">
-        <v>21.19871402139793</v>
+        <v>14.20120372697303</v>
       </c>
       <c r="O25">
         <v>0</v>
